--- a/average_satisfaction_similar_g3.xlsx
+++ b/average_satisfaction_similar_g3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57FE54C-DC4D-491E-AF95-13AA02DF1692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7137D9CB-D598-4CC9-8E5E-C1B62D10F527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{D1EF8AED-6230-49C6-85A8-CD820AE7B8D4}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{FB41BD76-7485-4E86-8DF9-09C90A8E832E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4AC57B-EA3C-486C-831E-47D266E8E824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF292C75-DEBD-405F-8BF4-A7F7CE41BE41}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.96554605935316262</v>
+        <v>0.91771025316661192</v>
       </c>
       <c r="B1">
-        <v>0.96649482679256293</v>
+        <v>1.0463737720969777</v>
       </c>
       <c r="C1">
-        <v>0.89887619227762106</v>
+        <v>1.0048573817349167</v>
       </c>
       <c r="D1">
-        <v>0.89617719727611755</v>
+        <v>0.96917381185160822</v>
       </c>
       <c r="E1">
-        <v>1.0289863629916001</v>
+        <v>1.1573062138811372</v>
       </c>
       <c r="F1">
-        <v>0.83216221011142266</v>
+        <v>0.92409875980140699</v>
       </c>
       <c r="G1">
-        <v>0.95123014643679926</v>
+        <v>0.99715070154581886</v>
       </c>
       <c r="H1">
-        <v>0.89368505341240534</v>
+        <v>1.0499034745432625</v>
       </c>
       <c r="I1">
-        <v>1.0133486404619068</v>
+        <v>1.0072377415101614</v>
       </c>
       <c r="J1">
-        <v>0.92588799581118586</v>
+        <v>0.98720906292350463</v>
       </c>
       <c r="K1">
-        <v>0.98847156012238935</v>
+        <v>1.1715408816058868</v>
       </c>
       <c r="L1">
-        <v>0.82850491470375731</v>
+        <v>1.0022211589820615</v>
       </c>
       <c r="M1">
-        <v>0.78938927915728474</v>
+        <v>1.1267975908345704</v>
       </c>
       <c r="N1">
-        <v>0.85989557890990154</v>
+        <v>0.8919020614193176</v>
       </c>
       <c r="O1">
-        <v>0.90123504139951116</v>
+        <v>1.2458645663324071</v>
       </c>
       <c r="P1">
-        <v>0.87008978151369099</v>
+        <v>1.1891558113446759</v>
       </c>
       <c r="Q1">
-        <v>0.84335206969226617</v>
+        <v>1.0501659275619322</v>
       </c>
       <c r="R1">
-        <v>0.88225420902322571</v>
+        <v>1.127273665683213</v>
       </c>
       <c r="S1">
-        <v>0.76029770259545137</v>
+        <v>0.93299741737896724</v>
       </c>
       <c r="T1">
-        <v>0.93061396922926154</v>
+        <v>1.2119081835805892</v>
       </c>
       <c r="U1">
-        <v>0.94505735675446778</v>
+        <v>0.862352648202376</v>
       </c>
       <c r="V1">
-        <v>0.95953063306167286</v>
+        <v>0.87508830067877164</v>
       </c>
       <c r="W1">
-        <v>0.84555841098436924</v>
+        <v>0.95098183782374313</v>
       </c>
       <c r="X1">
-        <v>1.0152916002420009</v>
+        <v>1.0378181436901865</v>
       </c>
       <c r="Y1">
-        <v>0.85393120363876451</v>
+        <v>1.0539640231898697</v>
       </c>
       <c r="Z1">
-        <v>0.85131772698742614</v>
+        <v>1.1687532766268696</v>
       </c>
       <c r="AA1">
-        <v>0.86997435825330172</v>
+        <v>1.0332462173285388</v>
       </c>
       <c r="AB1">
-        <v>1.0362932189518486</v>
+        <v>1.0827518848409994</v>
       </c>
       <c r="AC1">
-        <v>0.73787739889359261</v>
+        <v>1.0468212342025904</v>
       </c>
       <c r="AD1">
-        <v>0.90513513150313585</v>
+        <v>1.0160266834212091</v>
       </c>
       <c r="AE1">
-        <v>0.86470539092687282</v>
+        <v>1.1063002014658154</v>
       </c>
       <c r="AF1">
-        <v>0.90603680160786337</v>
+        <v>1.1087456045506578</v>
       </c>
       <c r="AG1">
-        <v>0.90396829269759804</v>
+        <v>1.1611214180194038</v>
       </c>
       <c r="AH1">
-        <v>0.87342776300687652</v>
+        <v>1.1295619508812365</v>
       </c>
       <c r="AI1">
-        <v>0.83910177301135691</v>
+        <v>1.0993482036581717</v>
       </c>
       <c r="AJ1">
-        <v>0.83882391447139937</v>
+        <v>1.1065510849700999</v>
       </c>
       <c r="AK1">
-        <v>0.80667642218005675</v>
+        <v>1.0941498129350076</v>
       </c>
       <c r="AL1">
-        <v>0.99561957439649629</v>
+        <v>0.95257296031085925</v>
       </c>
       <c r="AM1">
-        <v>0.99294304954931445</v>
+        <v>1.0750610451927241</v>
       </c>
       <c r="AN1">
-        <v>0.90255224610077445</v>
+        <v>0.6895522817362898</v>
       </c>
       <c r="AO1">
-        <v>0.89819575758060521</v>
+        <v>0.98266728449022467</v>
       </c>
       <c r="AP1">
-        <v>0.84223218739096206</v>
+        <v>1.0158578614317482</v>
       </c>
       <c r="AQ1">
-        <v>0.88682314434090359</v>
+        <v>1.003601024510792</v>
       </c>
       <c r="AR1">
-        <v>0.90872215975307136</v>
+        <v>0.78849906511716084</v>
       </c>
       <c r="AS1">
-        <v>0.899329279371468</v>
+        <v>0.97771567131092707</v>
       </c>
       <c r="AT1">
-        <v>0.90451836216759374</v>
+        <v>0.98028106484911248</v>
       </c>
       <c r="AU1">
-        <v>1.0589913137452083</v>
+        <v>1.022877921026317</v>
       </c>
       <c r="AV1">
-        <v>0.97751708386629266</v>
+        <v>1.1132185934634355</v>
       </c>
       <c r="AW1">
-        <v>0.77185485691221867</v>
+        <v>0.97893903302215746</v>
       </c>
       <c r="AX1">
-        <v>0.96766542904913433</v>
+        <v>0.93070178187529118</v>
       </c>
       <c r="AY1">
-        <v>0.92233285272116938</v>
+        <v>1.0980530477643027</v>
       </c>
       <c r="AZ1">
-        <v>1.0426746893821852</v>
+        <v>1.1089652987848517</v>
       </c>
       <c r="BA1">
-        <v>1.0280469163849619</v>
+        <v>0.97322120891315578</v>
       </c>
       <c r="BB1">
-        <v>0.89289528777699645</v>
+        <v>1.1158389670326267</v>
       </c>
       <c r="BC1">
-        <v>0.98920268514432474</v>
+        <v>1.0761546504358843</v>
       </c>
       <c r="BD1">
-        <v>0.72389519295718185</v>
+        <v>1.1539941076527034</v>
       </c>
       <c r="BE1">
-        <v>0.98242054211150065</v>
+        <v>1.0892130696047282</v>
       </c>
       <c r="BF1">
-        <v>1.0057700977977466</v>
+        <v>0.97433049695709917</v>
       </c>
       <c r="BG1">
-        <v>0.97730885916938659</v>
+        <v>0.98508608586334656</v>
       </c>
       <c r="BH1">
-        <v>0.92841314631184224</v>
+        <v>0.95567636742756057</v>
       </c>
       <c r="BI1">
-        <v>0.89636114893919083</v>
+        <v>1.0006576459570398</v>
       </c>
       <c r="BJ1">
-        <v>0.80374097279207068</v>
+        <v>0.95599410841975696</v>
       </c>
       <c r="BK1">
-        <v>0.8994610997368655</v>
+        <v>0.88967928449951716</v>
       </c>
       <c r="BL1">
-        <v>0.87213138935651258</v>
+        <v>1.0082233180685187</v>
       </c>
       <c r="BM1">
-        <v>0.89047436438902527</v>
+        <v>1.0276660846526333</v>
       </c>
       <c r="BN1">
-        <v>1.0229223186070342</v>
+        <v>0.96506285911026746</v>
       </c>
       <c r="BO1">
-        <v>0.83685210097278573</v>
+        <v>0.91724237044758006</v>
       </c>
       <c r="BP1">
-        <v>1.0092786035039172</v>
+        <v>0.81031609541698502</v>
       </c>
       <c r="BQ1">
-        <v>0.96226196707230416</v>
+        <v>1.1196293008133198</v>
       </c>
       <c r="BR1">
-        <v>0.72932673537050186</v>
+        <v>0.95082985334805792</v>
       </c>
       <c r="BS1">
-        <v>0.86925132656876536</v>
+        <v>1.1029578854898696</v>
       </c>
       <c r="BT1">
-        <v>0.87114452912149165</v>
+        <v>0.90422061307192969</v>
       </c>
       <c r="BU1">
-        <v>0.87246416194775678</v>
+        <v>0.95873133556849421</v>
       </c>
       <c r="BV1">
-        <v>0.86724764692572331</v>
+        <v>0.93449949535390286</v>
       </c>
       <c r="BW1">
-        <v>0.96286004651313184</v>
+        <v>1.0670723182963922</v>
       </c>
       <c r="BX1">
-        <v>0.8541147189838193</v>
+        <v>0.93645866286329515</v>
       </c>
       <c r="BY1">
-        <v>1.0264233869903421</v>
+        <v>1.0098766798699939</v>
       </c>
       <c r="BZ1">
-        <v>0.8882044418878754</v>
+        <v>0.92749692482095347</v>
       </c>
       <c r="CA1">
-        <v>0.92959139011329572</v>
+        <v>1.0005955723137636</v>
       </c>
       <c r="CB1">
-        <v>0.9776051599614427</v>
+        <v>1.0057521241384046</v>
       </c>
       <c r="CC1">
-        <v>0.86420239464924975</v>
+        <v>0.96300455586357692</v>
       </c>
       <c r="CD1">
-        <v>0.98496005553238364</v>
+        <v>0.94165473409480227</v>
       </c>
       <c r="CE1">
-        <v>0.898335633202197</v>
+        <v>0.99195076403669846</v>
       </c>
       <c r="CF1">
-        <v>1.0342622215982358</v>
+        <v>0.98522423683546223</v>
       </c>
       <c r="CG1">
-        <v>1.0235473154752919</v>
+        <v>0.98213893677786412</v>
       </c>
       <c r="CH1">
-        <v>0.75948547429657032</v>
+        <v>1.0798227942668965</v>
       </c>
       <c r="CI1">
-        <v>0.88768343238689373</v>
+        <v>0.98603742394652494</v>
       </c>
       <c r="CJ1">
-        <v>0.78667005342720642</v>
+        <v>0.93960031282135803</v>
       </c>
       <c r="CK1">
-        <v>0.83343578400671003</v>
+        <v>1.0875630702266295</v>
       </c>
       <c r="CL1">
-        <v>0.89323550914378957</v>
+        <v>0.94016904285592795</v>
       </c>
       <c r="CM1">
-        <v>0.95233732333663867</v>
+        <v>1.0020482033424067</v>
       </c>
       <c r="CN1">
-        <v>0.88101218875749199</v>
+        <v>0.96436769507941289</v>
       </c>
       <c r="CO1">
-        <v>0.90346494607404626</v>
+        <v>0.86704242598237169</v>
       </c>
       <c r="CP1">
-        <v>0.84495817587140198</v>
+        <v>0.85072249154637491</v>
       </c>
       <c r="CQ1">
-        <v>0.94540033262383871</v>
+        <v>1.1050989835448934</v>
       </c>
       <c r="CR1">
-        <v>0.9055198260982974</v>
+        <v>0.91728428297792652</v>
       </c>
       <c r="CS1">
-        <v>0.89356587977953394</v>
+        <v>0.89686790254791648</v>
       </c>
       <c r="CT1">
-        <v>0.88616658955761451</v>
+        <v>1.0269949789691577</v>
       </c>
       <c r="CU1">
-        <v>0.84601798928714245</v>
+        <v>1.0472755168935537</v>
       </c>
       <c r="CV1">
-        <v>1.1022165891610842</v>
+        <v>1.0300514299432282</v>
       </c>
     </row>
   </sheetData>
